--- a/database/물류시스템DB.xlsx
+++ b/database/물류시스템DB.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18315" windowHeight="11670" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676"/>
   </bookViews>
   <sheets>
     <sheet name="회사테이블" sheetId="1" r:id="rId1"/>
     <sheet name="유저테이블" sheetId="4" r:id="rId2"/>
-    <sheet name="접속테이블" sheetId="10" r:id="rId3"/>
-    <sheet name="권한테이블" sheetId="6" r:id="rId4"/>
-    <sheet name="코드테이블" sheetId="7" r:id="rId5"/>
-    <sheet name="상품테이블" sheetId="8" r:id="rId6"/>
+    <sheet name="상품테이블" sheetId="8" r:id="rId3"/>
+    <sheet name="접속테이블" sheetId="10" r:id="rId4"/>
+    <sheet name="권한테이블" sheetId="6" r:id="rId5"/>
+    <sheet name="코드테이블" sheetId="7" r:id="rId6"/>
     <sheet name="고객테이블" sheetId="9" r:id="rId7"/>
     <sheet name="발주테이블" sheetId="11" r:id="rId8"/>
     <sheet name="발주테이블_서브" sheetId="12" r:id="rId9"/>
@@ -25,26 +25,26 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">고객테이블!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">권한테이블!$A$1:$E$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">권한테이블!$A$1:$E$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">납품확인테이블!$A$1:$E$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">납품확인테이블_서브!$A$1:$E$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">문서테이블!$A$1:$E$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">물품상품테이블!$A$1:$E$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">발주테이블!$A$1:$E$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">발주테이블_서브!$A$1:$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">상품테이블!$A$1:$E$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">상품테이블!$A$1:$E$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">샘플!$A$1:$E$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">유저테이블!$A$1:$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">접속테이블!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">유저테이블!$A$1:$E$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">접속테이블!$A$1:$E$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">청구테이블!$A$1:$E$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">코드테이블!$A$1:$E$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">코드테이블!$A$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="363">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,18 +514,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>usernumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userEmail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userIncidentday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>companyCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,14 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,14 +1334,138 @@
   </si>
   <si>
     <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress</t>
+  </si>
+  <si>
+    <t>companyName_en</t>
+  </si>
+  <si>
+    <t>companyAddress_en</t>
+  </si>
+  <si>
+    <t>representative_en</t>
+  </si>
+  <si>
+    <t>orderAddress_en</t>
+  </si>
+  <si>
+    <t>companyNumberType</t>
+  </si>
+  <si>
+    <t>companyFaxType</t>
+  </si>
+  <si>
+    <t>companyRepresentativeNumber</t>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>default null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사주소(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사전화번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사팩스번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사대표자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representativeNumber와 중복?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIncidentDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName_en</t>
+  </si>
+  <si>
+    <t>userNumberType</t>
+  </si>
+  <si>
+    <t>유저이름(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저전화번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipAddress</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>IP주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문지주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문지주소(영문)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +1479,21 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1473,7 +1592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,6 +1627,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1730,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1634,7 +1764,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1810,21 +1939,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1965,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1867,9 +1997,9 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1882,9 +2012,9 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -1897,228 +2027,262 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2132,6 +2296,128 @@
         <v>42</v>
       </c>
       <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2141,33 +2427,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2184,191 +2470,191 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2383,33 +2669,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2426,197 +2712,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2631,33 +2917,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2674,203 +2960,203 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2885,33 +3171,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2928,221 +3214,221 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3157,33 +3443,33 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3200,251 +3486,251 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3459,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3467,15 +3753,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3770,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3501,147 +3787,147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3656,23 +3942,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3683,7 +3967,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3700,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3715,9 +3999,9 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -3730,9 +4014,9 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -3745,9 +4029,9 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -3760,7 +4044,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3775,7 +4059,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,141 +4074,169 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3939,34 +4251,439 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3983,9 +4700,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -3996,20 +4713,20 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>357</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -4018,349 +4735,142 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4375,32 +4885,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4417,165 +4929,161 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4590,32 +5098,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4632,372 +5140,180 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -5005,26 +5321,26 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5056,48 +5372,48 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -5108,9 +5424,9 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -5121,126 +5437,126 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -5251,9 +5567,9 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -5264,9 +5580,9 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
@@ -5277,9 +5593,9 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -5290,9 +5606,9 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -5303,72 +5619,72 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -5381,7 +5697,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -5394,12 +5710,12 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -5407,7 +5723,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -5420,7 +5736,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
@@ -5441,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5449,26 +5765,26 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5485,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5500,204 +5816,204 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>112</v>
@@ -5708,7 +6024,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -5721,7 +6037,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -5734,29 +6050,29 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -5768,38 +6084,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -5811,221 +6127,221 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>

--- a/database/물류시스템DB.xlsx
+++ b/database/물류시스템DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="회사테이블" sheetId="1" r:id="rId1"/>
@@ -13,38 +13,40 @@
     <sheet name="접속테이블" sheetId="10" r:id="rId4"/>
     <sheet name="권한테이블" sheetId="6" r:id="rId5"/>
     <sheet name="코드테이블" sheetId="7" r:id="rId6"/>
-    <sheet name="고객테이블" sheetId="9" r:id="rId7"/>
-    <sheet name="발주테이블" sheetId="11" r:id="rId8"/>
-    <sheet name="발주테이블_서브" sheetId="12" r:id="rId9"/>
-    <sheet name="문서테이블" sheetId="13" r:id="rId10"/>
-    <sheet name="물품상품테이블" sheetId="14" r:id="rId11"/>
-    <sheet name="납품확인테이블" sheetId="15" r:id="rId12"/>
-    <sheet name="납품확인테이블_서브" sheetId="16" r:id="rId13"/>
-    <sheet name="청구테이블" sheetId="17" r:id="rId14"/>
-    <sheet name="샘플" sheetId="5" r:id="rId15"/>
+    <sheet name="코드생성테이블" sheetId="19" r:id="rId7"/>
+    <sheet name="고객테이블" sheetId="9" r:id="rId8"/>
+    <sheet name="발주테이블" sheetId="11" r:id="rId9"/>
+    <sheet name="발주테이블_서브" sheetId="12" r:id="rId10"/>
+    <sheet name="문서테이블" sheetId="13" r:id="rId11"/>
+    <sheet name="물품상품테이블" sheetId="14" r:id="rId12"/>
+    <sheet name="납품확인테이블" sheetId="15" r:id="rId13"/>
+    <sheet name="납품확인테이블_서브" sheetId="16" r:id="rId14"/>
+    <sheet name="청구테이블" sheetId="17" r:id="rId15"/>
+    <sheet name="샘플" sheetId="5" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">고객테이블!$A$1:$E$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">고객테이블!$A$1:$E$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">권한테이블!$A$1:$E$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">납품확인테이블!$A$1:$E$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">납품확인테이블_서브!$A$1:$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">문서테이블!$A$1:$E$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">물품상품테이블!$A$1:$E$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">발주테이블!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">발주테이블_서브!$A$1:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">납품확인테이블!$A$1:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">납품확인테이블_서브!$A$1:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">문서테이블!$A$1:$E$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">물품상품테이블!$A$1:$E$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">발주테이블!$A$1:$E$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">발주테이블_서브!$A$1:$E$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">상품테이블!$A$1:$E$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">샘플!$A$1:$E$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">샘플!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">유저테이블!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">접속테이블!$A$1:$E$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">청구테이블!$A$1:$E$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">코드테이블!$A$1:$E$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">청구테이블!$A$1:$E$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">코드생성테이블!$A$1:$E$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">코드테이블!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="375">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,18 +288,1157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tblname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codekey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tbl_ProductInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productAcquirer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productManufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCostNotTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCostTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productFactoryPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productFactoryPriceNotTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productFactoryPriceTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productRetailPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productRetailPriceNotTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productRetailPriceTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productPriceNotTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productPriceTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과/면세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입사(수주처)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금비포함공장도가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장도가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금비포함원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장도가격세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권장소비자가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금비포함권장소비자가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권장소비자가격세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금비포함판매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAdress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyPostnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companySecurityNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representativeNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyFax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representativeEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAccountnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAccountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAccountBankCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAccountBankCodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAccountOwnerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyEstablishmenidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customercode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>customerRepresetitive</t>
+  </si>
+  <si>
+    <t>customerSecurityNumber</t>
+  </si>
+  <si>
+    <t>customerNumber</t>
+  </si>
+  <si>
+    <t>customerFax</t>
+  </si>
+  <si>
+    <t>customerPostNumber</t>
+  </si>
+  <si>
+    <t>customerAddress</t>
+  </si>
+  <si>
+    <t>customerEmail</t>
+  </si>
+  <si>
+    <t>customerTaxViewRepresentative</t>
+  </si>
+  <si>
+    <t>customerTaxViewerAddress</t>
+  </si>
+  <si>
+    <t>customerTaxViewerPostNumber</t>
+  </si>
+  <si>
+    <t>customerPaymentMethod</t>
+  </si>
+  <si>
+    <t>customerAccountbank</t>
+  </si>
+  <si>
+    <t>customerAccountbankcode</t>
+  </si>
+  <si>
+    <t>customerAccountbankcodename</t>
+  </si>
+  <si>
+    <t>customerAccountOwnerName</t>
+  </si>
+  <si>
+    <t>customerAccountNumber</t>
+  </si>
+  <si>
+    <t>customerTaxType</t>
+  </si>
+  <si>
+    <t>customerTax</t>
+  </si>
+  <si>
+    <t>customerGrade</t>
+  </si>
+  <si>
+    <t>customerRepressent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerRepressentNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금상대표자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금상주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금상우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대금지불방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Orderlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordernumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordersecuritynumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPostnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderFax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inordername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordermoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordersavedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordersaveprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paycondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarcahr(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자사업자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주자팩스번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수주자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총발주금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납기일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납기장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불예정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주,수주 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Orderlist_sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key identity(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주서키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocumentIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_productFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productBuyPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productSellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderSavedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorderCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorderRepresentative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납품일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납품사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_delivery_sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverykey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productVat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납품key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급가액세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_Claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClaimMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountBankCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountBankCodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountOwnerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignOwnerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약건명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납품기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구은행명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행지점코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행지점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸인 날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸인회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress</t>
+  </si>
+  <si>
+    <t>companyName_en</t>
+  </si>
+  <si>
+    <t>companyAddress_en</t>
+  </si>
+  <si>
+    <t>representative_en</t>
+  </si>
+  <si>
+    <t>orderAddress_en</t>
+  </si>
+  <si>
+    <t>companyNumberType</t>
+  </si>
+  <si>
+    <t>companyFaxType</t>
+  </si>
+  <si>
+    <t>companyRepresentativeNumber</t>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>default null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사주소(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사전화번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사팩스번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사대표자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representativeNumber와 중복?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIncidentDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName_en</t>
+  </si>
+  <si>
+    <t>userNumberType</t>
+  </si>
+  <si>
+    <t>유저이름(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저전화번호타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipAddress</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>IP주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문지주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문지주소(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>codename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,606 +1451,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_ProductInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productspec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productAcquirer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productManufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCostNotTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCostTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productFactoryPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productFactoryPriceNotTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productFactoryPriceTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productRetailPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productRetailPriceNotTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productRetailPriceTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productPriceNotTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productPriceTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과/면세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매입사(수주처)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금비포함공장도가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공장도가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금비포함원가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공장도가격세금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원가세금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권장소비자가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금비포함권장소비자가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권장소비자가격세금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금비포함판매가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가격세금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companycode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QRcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QR코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAdress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyPostnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companySecurityNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representativeNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyFax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representativeEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAccountnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAccountBank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAccountBankCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAccountBankCodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyAccountOwnerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyEstablishmenidate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customercode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerType</t>
-  </si>
-  <si>
-    <t>customerName</t>
-  </si>
-  <si>
-    <t>customerRepresetitive</t>
-  </si>
-  <si>
-    <t>customerSecurityNumber</t>
-  </si>
-  <si>
-    <t>customerNumber</t>
-  </si>
-  <si>
-    <t>customerFax</t>
-  </si>
-  <si>
-    <t>customerPostNumber</t>
-  </si>
-  <si>
-    <t>customerAddress</t>
-  </si>
-  <si>
-    <t>customerEmail</t>
-  </si>
-  <si>
-    <t>customerTaxViewRepresentative</t>
-  </si>
-  <si>
-    <t>customerTaxViewerAddress</t>
-  </si>
-  <si>
-    <t>customerTaxViewerPostNumber</t>
-  </si>
-  <si>
-    <t>customerPaymentMethod</t>
-  </si>
-  <si>
-    <t>customerAccountbank</t>
-  </si>
-  <si>
-    <t>customerAccountbankcode</t>
-  </si>
-  <si>
-    <t>customerAccountbankcodename</t>
-  </si>
-  <si>
-    <t>customerAccountOwnerName</t>
-  </si>
-  <si>
-    <t>customerAccountNumber</t>
-  </si>
-  <si>
-    <t>customerTaxType</t>
-  </si>
-  <si>
-    <t>customerTax</t>
-  </si>
-  <si>
-    <t>customerGrade</t>
-  </si>
-  <si>
-    <t>customerRepressent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customerRepressentNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래처구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩스번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금상대표자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금상주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금상우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대금지불방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세금타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Orderlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordernumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordersecuritynumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderPostnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderFax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inordername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordermoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordersavedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordersaveprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paycondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payother</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarcahr(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자사업자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주자팩스번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수주자이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총발주금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납기일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납기장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지불예정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지불금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지불조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
+    <t>코드명(한국어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드명(일본어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tblName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeName_k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeName_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(5,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_codecreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드(편집용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -917,547 +1507,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발주,수주 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Orderlist_sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key identity(1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주서키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocumentCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocumentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DocumentIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_productFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productBuyPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productSellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출고가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderCompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderSavedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inorderCompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inorderRepresentative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_delivery_sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverykey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productVat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급가액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급가액세금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_Claim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeliveryDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClaimMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountBank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountBankCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountBankCodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountOwnerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignOwnerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약건명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납품기한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청구금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청구은행명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행지점코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행지점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸인 날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸인회사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAddress</t>
-  </si>
-  <si>
-    <t>companyName_en</t>
-  </si>
-  <si>
-    <t>companyAddress_en</t>
-  </si>
-  <si>
-    <t>representative_en</t>
-  </si>
-  <si>
-    <t>orderAddress_en</t>
-  </si>
-  <si>
-    <t>companyNumberType</t>
-  </si>
-  <si>
-    <t>companyFaxType</t>
-  </si>
-  <si>
-    <t>companyRepresentativeNumber</t>
-  </si>
-  <si>
-    <t>nvarchar(255)</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>default null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명(영문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사주소(영문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자명(영문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사전화번호타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사팩스번호타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사대표자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>representativeNumber와 중복?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userIncidentDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName_en</t>
-  </si>
-  <si>
-    <t>userNumberType</t>
-  </si>
-  <si>
-    <t>유저이름(영문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저전화번호타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipAddress</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>IP주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문지주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문지주소(영문)</t>
+    <t>코드타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,7 +1515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1542,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1592,7 +1659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,6 +1706,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1940,10 +2016,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -1999,7 +2077,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -2014,7 +2092,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -2029,13 +2107,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -2044,13 +2122,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -2059,13 +2137,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -2074,13 +2152,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2089,13 +2167,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -2104,13 +2182,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -2119,13 +2197,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -2134,13 +2212,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -2149,13 +2227,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -2164,13 +2242,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -2179,13 +2257,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2194,13 +2272,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
@@ -2209,13 +2287,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -2224,13 +2302,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -2239,13 +2317,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
@@ -2260,7 +2338,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -2269,13 +2347,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
@@ -2299,124 +2377,124 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>336</v>
-      </c>
       <c r="C24" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>337</v>
-      </c>
       <c r="C25" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>341</v>
-      </c>
       <c r="D29" s="14" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2427,6 +2505,278 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2447,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -2472,94 +2822,94 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2668,7 +3018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2689,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -2714,107 +3064,107 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2916,7 +3266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2937,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -2962,120 +3312,120 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3170,7 +3520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3191,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3216,159 +3566,159 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3442,7 +3792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3463,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3488,224 +3838,224 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3744,7 +4094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E23"/>
@@ -3943,7 +4293,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
@@ -4001,7 +4353,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -4016,7 +4368,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -4031,7 +4383,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -4076,13 +4428,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -4091,13 +4443,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -4106,13 +4458,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>47</v>
@@ -4127,7 +4479,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
@@ -4136,13 +4488,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -4151,46 +4503,46 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -4252,7 +4604,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
@@ -4270,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -4304,13 +4658,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -4319,13 +4673,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -4334,263 +4688,263 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -4613,7 +4967,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -4659,7 +5013,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
@@ -4677,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -4702,7 +5058,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -4715,14 +5071,14 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -4735,33 +5091,33 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -4886,220 +5242,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
@@ -5117,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5142,49 +5287,45 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
@@ -5192,6 +5333,235 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
@@ -5313,6 +5683,211 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E32"/>
@@ -5334,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5374,46 +5949,46 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -5426,7 +6001,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -5439,124 +6014,124 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -5569,7 +6144,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -5582,7 +6157,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
@@ -5595,7 +6170,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -5608,7 +6183,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -5621,75 +6196,75 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -5715,7 +6290,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -5738,7 +6313,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -5756,7 +6331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E23"/>
@@ -5778,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5818,205 +6393,205 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -6052,301 +6627,29 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/database/물류시스템DB.xlsx
+++ b/database/물류시스템DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="회사테이블" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="376">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,6 +1508,33 @@
   </si>
   <si>
     <t>코드타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">primary key </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">identity(1,1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto increment</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,7 +2054,7 @@
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2068,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -4304,7 +4331,7 @@
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4344,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -4615,7 +4642,7 @@
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4655,7 +4682,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
@@ -5689,7 +5716,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -5889,18 +5916,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5940,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>

--- a/database/물류시스템DB.xlsx
+++ b/database/물류시스템DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18312" windowHeight="11676" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회사테이블" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="379">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_Codemaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,10 +1472,6 @@
   </si>
   <si>
     <t>decimal(5,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_codecreator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1537,12 +1529,52 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>companyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_CodeMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_CodeCreator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> foreign key(CompanyInfo 참조)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(CompanyInfo 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,6 +1620,28 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1686,7 +1740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,6 +1796,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,7 +2108,9 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -2095,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -2103,8 +2165,8 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
+      <c r="A4" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -2115,11 +2177,11 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -2134,13 +2196,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -2149,13 +2211,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -2164,13 +2226,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -2179,13 +2241,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2194,13 +2256,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -2209,13 +2271,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -2224,13 +2286,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -2239,13 +2301,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -2254,13 +2316,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -2269,13 +2331,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -2284,13 +2346,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2299,13 +2361,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
@@ -2314,13 +2376,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -2329,13 +2391,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -2344,13 +2406,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
@@ -2365,7 +2427,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -2374,13 +2436,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
@@ -2404,124 +2466,124 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -2563,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -2577,159 +2639,159 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2824,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -2849,94 +2911,94 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3066,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3091,107 +3153,107 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3314,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3339,120 +3401,120 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3568,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3593,159 +3655,159 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3840,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3865,224 +3927,224 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -4325,7 +4387,9 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -4371,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -4380,7 +4444,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -4395,7 +4459,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -4410,7 +4474,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -4455,13 +4519,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -4470,13 +4534,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -4485,13 +4549,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>47</v>
@@ -4506,7 +4570,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
@@ -4515,13 +4579,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -4530,46 +4594,46 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -4636,7 +4700,9 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -4651,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -4682,16 +4748,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -4700,13 +4766,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -4715,263 +4781,263 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -4994,7 +5060,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -5020,12 +5086,14 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
@@ -5060,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5085,7 +5153,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -5098,14 +5166,14 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -5118,33 +5186,33 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -5502,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>375</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5527,7 +5595,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -5540,53 +5608,53 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -5716,7 +5784,9 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -5731,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5756,40 +5826,40 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -5921,7 +5991,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -5936,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5967,7 +6037,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -5976,46 +6046,46 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -6028,7 +6098,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -6041,124 +6111,124 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -6171,7 +6241,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -6184,7 +6254,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
@@ -6197,7 +6267,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -6210,7 +6280,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -6223,75 +6293,75 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -6317,7 +6387,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -6340,7 +6410,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -6380,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -6420,205 +6490,205 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -6654,27 +6724,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1"/>
     </row>

--- a/database/물류시스템DB.xlsx
+++ b/database/물류시스템DB.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="회사테이블" sheetId="1" r:id="rId1"/>
     <sheet name="유저테이블" sheetId="4" r:id="rId2"/>
-    <sheet name="상품테이블" sheetId="8" r:id="rId3"/>
-    <sheet name="접속테이블" sheetId="10" r:id="rId4"/>
-    <sheet name="권한테이블" sheetId="6" r:id="rId5"/>
-    <sheet name="코드테이블" sheetId="7" r:id="rId6"/>
-    <sheet name="코드생성테이블" sheetId="19" r:id="rId7"/>
-    <sheet name="고객테이블" sheetId="9" r:id="rId8"/>
+    <sheet name="고객테이블" sheetId="9" r:id="rId3"/>
+    <sheet name="상품테이블" sheetId="8" r:id="rId4"/>
+    <sheet name="접속테이블" sheetId="10" r:id="rId5"/>
+    <sheet name="권한테이블" sheetId="6" r:id="rId6"/>
+    <sheet name="코드테이블" sheetId="7" r:id="rId7"/>
+    <sheet name="코드생성테이블" sheetId="19" r:id="rId8"/>
     <sheet name="발주테이블" sheetId="11" r:id="rId9"/>
     <sheet name="발주테이블_서브" sheetId="12" r:id="rId10"/>
     <sheet name="문서테이블" sheetId="13" r:id="rId11"/>
@@ -25,28 +25,28 @@
     <sheet name="샘플" sheetId="5" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">고객테이블!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">권한테이블!$A$1:$E$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">고객테이블!$A$1:$E$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">권한테이블!$A$1:$E$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">납품확인테이블!$A$1:$E$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">납품확인테이블_서브!$A$1:$E$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">문서테이블!$A$1:$E$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">물품상품테이블!$A$1:$E$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">발주테이블!$A$1:$E$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">발주테이블_서브!$A$1:$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">상품테이블!$A$1:$E$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">상품테이블!$A$1:$E$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">샘플!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">유저테이블!$A$1:$E$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">접속테이블!$A$1:$E$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">접속테이블!$A$1:$E$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">청구테이블!$A$1:$E$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">코드생성테이블!$A$1:$E$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">코드테이블!$A$1:$E$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">코드생성테이블!$A$1:$E$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">코드테이블!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="381">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1568,6 +1568,13 @@
   <si>
     <t>foreign key(CompanyInfo 참조)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default null</t>
   </si>
 </sst>
 </file>
@@ -4388,7 +4395,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4695,12 +4702,516 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -5106,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
@@ -5335,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
@@ -5548,7 +6059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFFF00"/>
@@ -5777,7 +6288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5976,450 +6487,6 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
